--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2440451.249868263</v>
+        <v>2438563.668351862</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>56.76542271507753</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>92.13472700759353</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>378.8250228382223</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>99.38122376111777</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>127.0044127072331</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>101.6123617732496</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>47.50320101340264</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>54.47555601903385</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343913958</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>51.44029960352461</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>199.2118610477147</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>258.1442591749529</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>118.2422920270589</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>191.6534898356754</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>152.6276470398216</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>73.50096938092098</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>87.65220976161997</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>203.8435192151914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>49.38162151975413</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>106.2835578420355</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965504</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437393</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897881</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523548</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>35.15211597636918</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>93.59717489588101</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2053.247973680502</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1684.28545674009</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1326.01975813334</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>940.2315055350957</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>529.2456007454882</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>111.2817926436751</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>111.2817926436751</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2443.387305656314</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2053.247973680502</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1825.581288436855</v>
+        <v>983.0286321745432</v>
       </c>
       <c r="C5" t="n">
-        <v>1456.618771496444</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="D5" t="n">
-        <v>1456.618771496444</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>2212.181128500977</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y5" t="n">
-        <v>2212.181128500977</v>
+        <v>1369.628472238665</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4635,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>323.3278565882116</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>323.3278565882116</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>323.3278565882116</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>154.328056326544</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286582</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832262</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>182.2302673832262</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>932.2014054355416</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>563.2388884951299</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696253</v>
+        <v>563.2388884951299</v>
       </c>
       <c r="E8" t="n">
-        <v>478.852290671381</v>
+        <v>177.4506358968857</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>170.5051351476822</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>156.5817310862731</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2649.166059691552</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2649.166059691552</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2649.166059691552</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2318.103172347981</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1965.334517077867</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.868758816787</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>932.2014054355416</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036443</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036443</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036443</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036443</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>728.128984206434</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T10" t="n">
-        <v>728.128984206434</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="U10" t="n">
-        <v>728.128984206434</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="V10" t="n">
-        <v>728.128984206434</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506041</v>
+        <v>108.9687959810047</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,19 +5039,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>143.7578250841096</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>292.8275092861694</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262064</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>525.6009593486384</v>
+        <v>149.1769900497046</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>149.1769900497046</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1297.692168489504</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1297.692168489504</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>1043.007680283617</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W13" t="n">
-        <v>753.5905102466558</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X13" t="n">
-        <v>525.6009593486384</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y13" t="n">
-        <v>525.6009593486384</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881927</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1038.244483529058</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>783.5599953231707</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>494.14282528621</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X16" t="n">
-        <v>266.1532743881927</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881927</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,43 +5498,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5604,16 +5604,16 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1305.326886885503</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1016.198248099061</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V19" t="n">
-        <v>761.5137598931742</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W19" t="n">
-        <v>472.0965898562135</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X19" t="n">
-        <v>244.1070389581962</v>
+        <v>420.322614832457</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5917,13 +5917,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028581</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,40 +5972,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028581</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028581</v>
+        <v>185.7546770780838</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570734</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W25" t="n">
-        <v>531.1091870201127</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X25" t="n">
-        <v>303.1196361220954</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028581</v>
+        <v>354.6908600059907</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,22 +6227,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>441.9005583181187</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>441.9005583181187</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609662</v>
+        <v>791.435389115469</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550793</v>
+        <v>536.7509009095821</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181187</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X28" t="n">
-        <v>441.9005583181187</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y28" t="n">
-        <v>441.9005583181187</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>602.9488650238197</v>
+        <v>750.874819421525</v>
       </c>
       <c r="C31" t="n">
-        <v>489.7735473772839</v>
+        <v>637.6995017749889</v>
       </c>
       <c r="D31" t="n">
-        <v>395.4177732463193</v>
+        <v>543.3437276440239</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463193</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297799</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309715</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864675</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962062</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167073</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662002</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1299.753168807084</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1066.096864051494</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="X31" t="n">
-        <v>893.8681784348476</v>
+        <v>1041.794132832553</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.8364645726884</v>
+        <v>876.7624189703939</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,13 +6710,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
@@ -6725,25 +6725,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6929,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7023,7 +7023,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
         <v>2051.878056918008</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>559.3999450277973</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O42" t="n">
         <v>2112.811595180915</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525396</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516231</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>5.100663089359692</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>43.65987261462453</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>242.9997743936054</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>41.75994765618401</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10671,10 +10671,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>297.2466435761028</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>148.2747143566559</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,13 +11382,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>286.5092576192343</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>97.17517341468775</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>22.33570001067456</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>28.09309322362446</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.3423613250359</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>29.89407122271381</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>65.95700631227315</v>
       </c>
     </row>
     <row r="20">
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>124.4198406026823</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>60.96326325659238</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.74113413690336</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>99.23385149845822</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>115.2640032163536</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801186</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571468</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>161.7822707189015</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>76.90922386459906</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822996.3863585981</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855372.195454099</v>
+        <v>855372.1954540989</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862954.6280071856</v>
+        <v>862954.6280071858</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.1366196777</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.1366196778</v>
-      </c>
       <c r="G2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="K2" t="n">
-        <v>589892.0991506411</v>
+        <v>589892.0991506409</v>
       </c>
       <c r="L2" t="n">
         <v>595255.2831516047</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516051</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284584</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086665</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284584</v>
+        <v>44162.60530284568</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26430,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106733</v>
+        <v>40339.23010106727</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
+        <v>44593.39482819116</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.3948281912</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-243204.5419128736</v>
       </c>
       <c r="C6" t="n">
-        <v>346763.3373016709</v>
+        <v>346763.337301671</v>
       </c>
       <c r="D6" t="n">
         <v>346763.337301671</v>
       </c>
       <c r="E6" t="n">
-        <v>-72329.83339280606</v>
+        <v>-72427.29251877789</v>
       </c>
       <c r="F6" t="n">
-        <v>452830.2030840905</v>
+        <v>452732.7439581182</v>
       </c>
       <c r="G6" t="n">
-        <v>452830.2030840905</v>
+        <v>452732.7439581182</v>
       </c>
       <c r="H6" t="n">
-        <v>452830.2030840905</v>
+        <v>452732.7439581181</v>
       </c>
       <c r="I6" t="n">
-        <v>452830.2030840905</v>
+        <v>452732.7439581184</v>
       </c>
       <c r="J6" t="n">
-        <v>276406.9838914975</v>
+        <v>276309.5247655252</v>
       </c>
       <c r="K6" t="n">
-        <v>408762.0552165051</v>
+        <v>408743.5614785707</v>
       </c>
       <c r="L6" t="n">
-        <v>442603.8757025214</v>
+        <v>442603.8757025212</v>
       </c>
       <c r="M6" t="n">
-        <v>318145.7672695509</v>
+        <v>318145.7672695511</v>
       </c>
       <c r="N6" t="n">
-        <v>452946.7825033881</v>
+        <v>452946.7825033886</v>
       </c>
       <c r="O6" t="n">
-        <v>452946.7825033878</v>
+        <v>452946.7825033885</v>
       </c>
       <c r="P6" t="n">
-        <v>408784.1772005422</v>
+        <v>408784.1772005428</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,22 +26738,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170864</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108332</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16589352978372</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.36203824822886</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>289.7956430646682</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>7.412915817831276</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>56.78966508067738</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>159.5185856293579</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>222.3104109911076</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>126.9125117955689</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>80.49006577330437</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.2051448974514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279169</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>47.01084204426638</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557327</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,19 +35972,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>621.6037559756885</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>450.0931893251301</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>374.9545210541968</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686864</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>481.9867828282178</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412283</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043206</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053976</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,19 +37391,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>546.5043485321271</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>298.8501529445951</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>568.8729598603425</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
